--- a/son/モデル適用/data_Stanford Dogs Dataset.xlsx
+++ b/son/モデル適用/data_Stanford Dogs Dataset.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jangs\OneDrive\ドキュメント\git\topse\son\モデル適用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\json\Desktop\kaggle\son\モデル適用\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A703F42D-94BF-43DD-B6F3-228DB5A42DEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{991443EF-B219-42BB-8C1D-0F515F3ED659}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="123">
   <si>
     <t>n02108089-boxer</t>
   </si>
@@ -407,8 +406,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,12 +433,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -468,7 +473,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -476,6 +481,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -792,1722 +803,2451 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD3BD80E-8FC1-4636-9EF6-4ED25EB2B067}">
-  <dimension ref="B1:F123"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="39.09765625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:9">
       <c r="B1" s="2" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B3" s="1" t="s">
-        <v>120</v>
-      </c>
+    <row r="3" spans="2:9" ht="14.25" thickBot="1">
+      <c r="B3" s="1"/>
       <c r="C3" s="1">
-        <v>15514</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="F3" s="1">
-        <v>5066</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
+        <v>20580</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="14.25" thickTop="1">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>114</v>
-      </c>
-      <c r="E4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="C4" s="3">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="14.25" thickBot="1">
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>137</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+        <v>182</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="F5" s="1">
+        <v>15514</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="I5" s="1">
+        <v>5066</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="14.25" thickTop="1">
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+      <c r="H6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+        <v>137</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.45">
+        <v>112</v>
+      </c>
+      <c r="H9" t="s">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.45">
+        <v>126</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
       <c r="B11" t="s">
         <v>7</v>
       </c>
       <c r="C11">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.45">
+        <v>116</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12">
-        <v>136</v>
+        <v>181</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F12">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.45">
+        <v>148</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F13">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.45">
+        <v>138</v>
+      </c>
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F14">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9">
       <c r="B15" t="s">
         <v>11</v>
       </c>
       <c r="C15">
-        <v>135</v>
+        <v>179</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F15">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+      <c r="H15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
       <c r="B16" t="s">
         <v>12</v>
       </c>
       <c r="C16">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F16">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+        <v>164</v>
+      </c>
+      <c r="H16" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17" t="s">
         <v>13</v>
       </c>
       <c r="C17">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="E17" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F17">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+      <c r="H17" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
       <c r="B18" t="s">
         <v>14</v>
       </c>
       <c r="C18">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F18">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19">
+        <v>150</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19">
         <v>113</v>
       </c>
-      <c r="E19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19">
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:9">
       <c r="B20" t="s">
         <v>16</v>
       </c>
       <c r="C20">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F20">
+        <v>120</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:9">
       <c r="B21" t="s">
         <v>17</v>
       </c>
       <c r="C21">
-        <v>165</v>
+        <v>219</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F21">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
+        <v>113</v>
+      </c>
+      <c r="H21" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
       <c r="B22" t="s">
         <v>18</v>
       </c>
       <c r="C22">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F22">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+      <c r="H22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
       <c r="B23" t="s">
         <v>19</v>
       </c>
       <c r="C23">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F23">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
+        <v>165</v>
+      </c>
+      <c r="H23" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
       <c r="B24" t="s">
         <v>20</v>
       </c>
       <c r="C24">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F24">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
+        <v>113</v>
+      </c>
+      <c r="H24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
       <c r="B25" t="s">
         <v>21</v>
       </c>
       <c r="C25">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F25">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+      <c r="H25" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
       <c r="B26" t="s">
         <v>22</v>
       </c>
       <c r="C26">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F26">
+        <v>118</v>
+      </c>
+      <c r="H26" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:9">
       <c r="B27" t="s">
         <v>23</v>
       </c>
       <c r="C27">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F27">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
+        <v>148</v>
+      </c>
+      <c r="H27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I27">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
       <c r="B28" t="s">
         <v>24</v>
       </c>
       <c r="C28">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F28">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
+        <v>117</v>
+      </c>
+      <c r="H28" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
       <c r="B29" t="s">
         <v>25</v>
       </c>
       <c r="C29">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F29">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
+        <v>164</v>
+      </c>
+      <c r="H29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
       <c r="B30" t="s">
         <v>26</v>
       </c>
       <c r="C30">
+        <v>152</v>
+      </c>
+      <c r="E30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30">
         <v>115</v>
       </c>
-      <c r="E30" t="s">
-        <v>26</v>
-      </c>
-      <c r="F30">
+      <c r="H30" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:9">
       <c r="B31" t="s">
         <v>27</v>
       </c>
       <c r="C31">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F31">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+      <c r="H31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
       <c r="B32" t="s">
         <v>28</v>
       </c>
       <c r="C32">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="E32" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F32">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+      <c r="H32" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
       <c r="B33" t="s">
         <v>29</v>
       </c>
       <c r="C33">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F33">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
+        <v>127</v>
+      </c>
+      <c r="H33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
       <c r="B34" t="s">
         <v>30</v>
       </c>
       <c r="C34">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F34">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
+        <v>148</v>
+      </c>
+      <c r="H34" t="s">
+        <v>28</v>
+      </c>
+      <c r="I34">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
       <c r="B35" t="s">
         <v>31</v>
       </c>
       <c r="C35">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="E35" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F35">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
+        <v>139</v>
+      </c>
+      <c r="H35" t="s">
+        <v>29</v>
+      </c>
+      <c r="I35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
       <c r="B36" t="s">
         <v>32</v>
       </c>
       <c r="C36">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F36">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+      <c r="H36" t="s">
+        <v>30</v>
+      </c>
+      <c r="I36">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
       <c r="B37" t="s">
         <v>33</v>
       </c>
       <c r="C37">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="E37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F37">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+      <c r="H37" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
       <c r="B38" t="s">
         <v>34</v>
       </c>
       <c r="C38">
-        <v>140</v>
+        <v>186</v>
       </c>
       <c r="E38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F38">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="H38" t="s">
+        <v>32</v>
+      </c>
+      <c r="I38">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
       <c r="B39" t="s">
         <v>35</v>
       </c>
       <c r="C39">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F39">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="H39" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
       <c r="B40" t="s">
         <v>36</v>
       </c>
       <c r="C40">
-        <v>157</v>
+        <v>209</v>
       </c>
       <c r="E40" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F40">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.45">
+        <v>140</v>
+      </c>
+      <c r="H40" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
       <c r="B41" t="s">
         <v>37</v>
       </c>
       <c r="C41">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="E41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F41">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+      <c r="H41" t="s">
+        <v>35</v>
+      </c>
+      <c r="I41">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
       <c r="B42" t="s">
         <v>38</v>
       </c>
       <c r="C42">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="E42" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F42">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.45">
+        <v>157</v>
+      </c>
+      <c r="H42" t="s">
+        <v>36</v>
+      </c>
+      <c r="I42">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9">
       <c r="B43" t="s">
         <v>39</v>
       </c>
       <c r="C43">
-        <v>134</v>
+        <v>178</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F43">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.45">
+        <v>148</v>
+      </c>
+      <c r="H43" t="s">
+        <v>37</v>
+      </c>
+      <c r="I43">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="2:9">
       <c r="B44" t="s">
         <v>40</v>
       </c>
       <c r="C44">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="E44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44">
+        <v>124</v>
+      </c>
+      <c r="H44" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44">
         <v>40</v>
       </c>
-      <c r="F44">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="45" spans="2:9">
       <c r="B45" t="s">
         <v>41</v>
       </c>
       <c r="C45">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="E45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F45">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+      <c r="H45" t="s">
+        <v>39</v>
+      </c>
+      <c r="I45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="2:9">
       <c r="B46" t="s">
         <v>42</v>
       </c>
       <c r="C46">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="E46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F46">
+        <v>115</v>
+      </c>
+      <c r="H46" t="s">
+        <v>40</v>
+      </c>
+      <c r="I46">
         <v>37</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:9">
       <c r="B47" t="s">
         <v>43</v>
       </c>
       <c r="C47">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F47">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.45">
+        <v>139</v>
+      </c>
+      <c r="H47" t="s">
+        <v>41</v>
+      </c>
+      <c r="I47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="2:9">
       <c r="B48" t="s">
         <v>44</v>
       </c>
       <c r="C48">
+        <v>150</v>
+      </c>
+      <c r="E48" t="s">
+        <v>42</v>
+      </c>
+      <c r="F48">
         <v>113</v>
       </c>
-      <c r="E48" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48">
+      <c r="H48" t="s">
+        <v>42</v>
+      </c>
+      <c r="I48">
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:9">
       <c r="B49" t="s">
         <v>45</v>
       </c>
       <c r="C49">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F49">
+        <v>116</v>
+      </c>
+      <c r="H49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I49">
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:9">
       <c r="B50" t="s">
         <v>46</v>
       </c>
       <c r="C50">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="E50" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F50">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.45">
+        <v>113</v>
+      </c>
+      <c r="H50" t="s">
+        <v>44</v>
+      </c>
+      <c r="I50">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9">
       <c r="B51" t="s">
         <v>47</v>
       </c>
       <c r="C51">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="E51" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F51">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.45">
+        <v>117</v>
+      </c>
+      <c r="H51" t="s">
+        <v>45</v>
+      </c>
+      <c r="I51">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9">
       <c r="B52" t="s">
         <v>48</v>
       </c>
       <c r="C52">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="E52" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F52">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.45">
+        <v>142</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9">
       <c r="B53" t="s">
         <v>49</v>
       </c>
       <c r="C53">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="E53" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F53">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.45">
+        <v>127</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" spans="2:9">
       <c r="B54" t="s">
         <v>50</v>
       </c>
       <c r="C54">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="E54" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F54">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+      <c r="H54" t="s">
+        <v>48</v>
+      </c>
+      <c r="I54">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="2:9">
       <c r="B55" t="s">
         <v>51</v>
       </c>
       <c r="C55">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="E55" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F55">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.45">
+        <v>160</v>
+      </c>
+      <c r="H55" t="s">
+        <v>49</v>
+      </c>
+      <c r="I55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9">
       <c r="B56" t="s">
         <v>52</v>
       </c>
       <c r="C56">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="E56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F56">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.45">
+        <v>117</v>
+      </c>
+      <c r="H56" t="s">
+        <v>50</v>
+      </c>
+      <c r="I56">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9">
       <c r="B57" t="s">
         <v>53</v>
       </c>
       <c r="C57">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="E57" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F57">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+      <c r="H57" t="s">
+        <v>51</v>
+      </c>
+      <c r="I57">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9">
       <c r="B58" t="s">
         <v>54</v>
       </c>
       <c r="C58">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="E58" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F58">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.45">
+        <v>127</v>
+      </c>
+      <c r="H58" t="s">
+        <v>52</v>
+      </c>
+      <c r="I58">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9">
       <c r="B59" t="s">
         <v>55</v>
       </c>
       <c r="C59">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="E59" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F59">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+      <c r="H59" t="s">
+        <v>53</v>
+      </c>
+      <c r="I59">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9">
       <c r="B60" t="s">
         <v>56</v>
       </c>
       <c r="C60">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="E60" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F60">
+        <v>148</v>
+      </c>
+      <c r="H60" t="s">
+        <v>54</v>
+      </c>
+      <c r="I60">
         <v>48</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:9">
       <c r="B61" t="s">
         <v>57</v>
       </c>
       <c r="C61">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="E61" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F61">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.45">
+        <v>113</v>
+      </c>
+      <c r="H61" t="s">
+        <v>55</v>
+      </c>
+      <c r="I61">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9">
       <c r="B62" t="s">
         <v>58</v>
       </c>
       <c r="C62">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="E62" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F62">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.45">
+        <v>147</v>
+      </c>
+      <c r="H62" t="s">
+        <v>56</v>
+      </c>
+      <c r="I62">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9">
       <c r="B63" t="s">
         <v>59</v>
       </c>
       <c r="C63">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="E63" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F63">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+      <c r="H63" t="s">
+        <v>57</v>
+      </c>
+      <c r="I63">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9">
       <c r="B64" t="s">
         <v>60</v>
       </c>
       <c r="C64">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="E64" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F64">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+      <c r="H64" t="s">
+        <v>58</v>
+      </c>
+      <c r="I64">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
       <c r="B65" t="s">
         <v>61</v>
       </c>
       <c r="C65">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="E65" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F65">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.45">
+        <v>155</v>
+      </c>
+      <c r="H65" t="s">
+        <v>59</v>
+      </c>
+      <c r="I65">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
       <c r="B66" t="s">
         <v>62</v>
       </c>
       <c r="C66">
-        <v>161</v>
+        <v>214</v>
       </c>
       <c r="E66" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F66">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.45">
+        <v>151</v>
+      </c>
+      <c r="H66" t="s">
+        <v>60</v>
+      </c>
+      <c r="I66">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
       <c r="B67" t="s">
         <v>63</v>
       </c>
       <c r="C67">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="E67" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F67">
+        <v>114</v>
+      </c>
+      <c r="H67" t="s">
+        <v>61</v>
+      </c>
+      <c r="I67">
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:9">
       <c r="B68" t="s">
         <v>64</v>
       </c>
       <c r="C68">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="E68" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F68">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.45">
+        <v>161</v>
+      </c>
+      <c r="H68" t="s">
+        <v>62</v>
+      </c>
+      <c r="I68">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
       <c r="B69" t="s">
         <v>65</v>
       </c>
       <c r="C69">
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="E69" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F69">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.45">
+        <v>113</v>
+      </c>
+      <c r="H69" t="s">
+        <v>63</v>
+      </c>
+      <c r="I69">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9">
       <c r="B70" t="s">
         <v>66</v>
       </c>
       <c r="C70">
+        <v>153</v>
+      </c>
+      <c r="E70" t="s">
+        <v>64</v>
+      </c>
+      <c r="F70">
         <v>115</v>
       </c>
-      <c r="E70" t="s">
-        <v>66</v>
-      </c>
-      <c r="F70">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="H70" t="s">
+        <v>64</v>
+      </c>
+      <c r="I70">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
       <c r="B71" t="s">
         <v>67</v>
       </c>
       <c r="C71">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="E71" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F71">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+      <c r="H71" t="s">
+        <v>65</v>
+      </c>
+      <c r="I71">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9">
       <c r="B72" t="s">
         <v>68</v>
       </c>
       <c r="C72">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="E72" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F72">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+      <c r="H72" t="s">
+        <v>66</v>
+      </c>
+      <c r="I72">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9">
       <c r="B73" t="s">
         <v>69</v>
       </c>
       <c r="C73">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="E73" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F73">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.45">
+        <v>117</v>
+      </c>
+      <c r="H73" t="s">
+        <v>67</v>
+      </c>
+      <c r="I73">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="2:9">
       <c r="B74" t="s">
         <v>70</v>
       </c>
       <c r="C74">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="E74" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F74">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.45">
+        <v>137</v>
+      </c>
+      <c r="H74" t="s">
+        <v>68</v>
+      </c>
+      <c r="I74">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9">
       <c r="B75" t="s">
         <v>71</v>
       </c>
       <c r="C75">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="E75" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F75">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+      <c r="H75" t="s">
+        <v>69</v>
+      </c>
+      <c r="I75">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9">
       <c r="B76" t="s">
         <v>72</v>
       </c>
       <c r="C76">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="E76" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F76">
+        <v>113</v>
+      </c>
+      <c r="H76" t="s">
+        <v>70</v>
+      </c>
+      <c r="I76">
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:9">
       <c r="B77" t="s">
         <v>73</v>
       </c>
       <c r="C77">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="E77" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F77">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.45">
+        <v>116</v>
+      </c>
+      <c r="H77" t="s">
+        <v>71</v>
+      </c>
+      <c r="I77">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9">
       <c r="B78" t="s">
         <v>74</v>
       </c>
       <c r="C78">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="E78" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F78">
+        <v>112</v>
+      </c>
+      <c r="H78" t="s">
+        <v>72</v>
+      </c>
+      <c r="I78">
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:9">
       <c r="B79" t="s">
         <v>75</v>
       </c>
       <c r="C79">
-        <v>132</v>
+        <v>175</v>
       </c>
       <c r="E79" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F79">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+      <c r="H79" t="s">
+        <v>73</v>
+      </c>
+      <c r="I79">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9">
       <c r="B80" t="s">
         <v>76</v>
       </c>
       <c r="C80">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="E80" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F80">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+      <c r="H80" t="s">
+        <v>74</v>
+      </c>
+      <c r="I80">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9">
       <c r="B81" t="s">
         <v>77</v>
       </c>
       <c r="C81">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="E81" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F81">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.45">
+        <v>132</v>
+      </c>
+      <c r="H81" t="s">
+        <v>75</v>
+      </c>
+      <c r="I81">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9">
       <c r="B82" t="s">
         <v>78</v>
       </c>
       <c r="C82">
-        <v>190</v>
+        <v>252</v>
       </c>
       <c r="E82" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F82">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.45">
+        <v>141</v>
+      </c>
+      <c r="H82" t="s">
+        <v>76</v>
+      </c>
+      <c r="I82">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9">
       <c r="B83" t="s">
         <v>79</v>
       </c>
       <c r="C83">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="E83" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F83">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+      <c r="H83" t="s">
+        <v>77</v>
+      </c>
+      <c r="I83">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9">
       <c r="B84" t="s">
         <v>80</v>
       </c>
       <c r="C84">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="E84" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F84">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.45">
+        <v>190</v>
+      </c>
+      <c r="H84" t="s">
+        <v>78</v>
+      </c>
+      <c r="I84">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9">
       <c r="B85" t="s">
         <v>81</v>
       </c>
       <c r="C85">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="E85" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F85">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.45">
+        <v>175</v>
+      </c>
+      <c r="H85" t="s">
+        <v>79</v>
+      </c>
+      <c r="I85">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9">
       <c r="B86" t="s">
         <v>82</v>
       </c>
       <c r="C86">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="E86" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F86">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+      <c r="H86" t="s">
+        <v>80</v>
+      </c>
+      <c r="I86">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9">
       <c r="B87" t="s">
         <v>83</v>
       </c>
       <c r="C87">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="E87" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F87">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+      <c r="H87" t="s">
+        <v>81</v>
+      </c>
+      <c r="I87">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9">
       <c r="B88" t="s">
         <v>84</v>
       </c>
       <c r="C88">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="E88" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F88">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.45">
+        <v>152</v>
+      </c>
+      <c r="H88" t="s">
+        <v>82</v>
+      </c>
+      <c r="I88">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9">
       <c r="B89" t="s">
         <v>85</v>
       </c>
       <c r="C89">
-        <v>116</v>
+        <v>154</v>
       </c>
       <c r="E89" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F89">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.45">
+        <v>127</v>
+      </c>
+      <c r="H89" t="s">
+        <v>83</v>
+      </c>
+      <c r="I89">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9">
       <c r="B90" t="s">
         <v>86</v>
       </c>
       <c r="C90">
-        <v>127</v>
+        <v>169</v>
       </c>
       <c r="E90" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F90">
+        <v>130</v>
+      </c>
+      <c r="H90" t="s">
+        <v>84</v>
+      </c>
+      <c r="I90">
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:9">
       <c r="B91" t="s">
         <v>87</v>
       </c>
       <c r="C91">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="E91" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F91">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.45">
+        <v>116</v>
+      </c>
+      <c r="H91" t="s">
+        <v>85</v>
+      </c>
+      <c r="I91">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9">
       <c r="B92" t="s">
         <v>88</v>
       </c>
       <c r="C92">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="E92" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F92">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.45">
+        <v>127</v>
+      </c>
+      <c r="H92" t="s">
+        <v>86</v>
+      </c>
+      <c r="I92">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9">
       <c r="B93" t="s">
         <v>89</v>
       </c>
       <c r="C93">
-        <v>164</v>
+        <v>218</v>
       </c>
       <c r="E93" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F93">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.45">
+        <v>142</v>
+      </c>
+      <c r="H93" t="s">
+        <v>87</v>
+      </c>
+      <c r="I93">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9">
       <c r="B94" t="s">
         <v>90</v>
       </c>
       <c r="C94">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="E94" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F94">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.45">
+        <v>113</v>
+      </c>
+      <c r="H94" t="s">
+        <v>88</v>
+      </c>
+      <c r="I94">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9">
       <c r="B95" t="s">
         <v>91</v>
       </c>
       <c r="C95">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="E95" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F95">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.45">
+        <v>164</v>
+      </c>
+      <c r="H95" t="s">
+        <v>89</v>
+      </c>
+      <c r="I95">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9">
       <c r="B96" t="s">
         <v>92</v>
       </c>
       <c r="C96">
-        <v>130</v>
+        <v>172</v>
       </c>
       <c r="E96" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F96">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.45">
+        <v>117</v>
+      </c>
+      <c r="H96" t="s">
+        <v>90</v>
+      </c>
+      <c r="I96">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" spans="2:9">
       <c r="B97" t="s">
         <v>93</v>
       </c>
       <c r="C97">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="E97" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F97">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.45">
+        <v>128</v>
+      </c>
+      <c r="H97" t="s">
+        <v>91</v>
+      </c>
+      <c r="I97">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="2:9">
       <c r="B98" t="s">
         <v>94</v>
       </c>
       <c r="C98">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="E98" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F98">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+      <c r="H98" t="s">
+        <v>92</v>
+      </c>
+      <c r="I98">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="99" spans="2:9">
       <c r="B99" t="s">
         <v>95</v>
       </c>
       <c r="C99">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="E99" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F99">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+      <c r="H99" t="s">
+        <v>93</v>
+      </c>
+      <c r="I99">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="100" spans="2:9">
       <c r="B100" t="s">
         <v>96</v>
       </c>
       <c r="C100">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="E100" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F100">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+      <c r="H100" t="s">
+        <v>94</v>
+      </c>
+      <c r="I100">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="101" spans="2:9">
       <c r="B101" t="s">
         <v>97</v>
       </c>
       <c r="C101">
-        <v>129</v>
+        <v>171</v>
       </c>
       <c r="E101" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F101">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+      <c r="H101" t="s">
+        <v>95</v>
+      </c>
+      <c r="I101">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="102" spans="2:9">
       <c r="B102" t="s">
         <v>98</v>
       </c>
       <c r="C102">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="E102" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F102">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.45">
+        <v>148</v>
+      </c>
+      <c r="H102" t="s">
+        <v>96</v>
+      </c>
+      <c r="I102">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="103" spans="2:9">
       <c r="B103" t="s">
         <v>99</v>
       </c>
       <c r="C103">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="E103" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F103">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+      <c r="H103" t="s">
+        <v>97</v>
+      </c>
+      <c r="I103">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="104" spans="2:9">
       <c r="B104" t="s">
         <v>100</v>
       </c>
       <c r="C104">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="E104" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F104">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+      <c r="H104" t="s">
+        <v>98</v>
+      </c>
+      <c r="I104">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="105" spans="2:9">
       <c r="B105" t="s">
         <v>101</v>
       </c>
       <c r="C105">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="E105" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F105">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.45">
+        <v>152</v>
+      </c>
+      <c r="H105" t="s">
+        <v>99</v>
+      </c>
+      <c r="I105">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="2:9">
       <c r="B106" t="s">
         <v>102</v>
       </c>
       <c r="C106">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="E106" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F106">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.45">
+        <v>113</v>
+      </c>
+      <c r="H106" t="s">
+        <v>100</v>
+      </c>
+      <c r="I106">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="107" spans="2:9">
       <c r="B107" t="s">
         <v>103</v>
       </c>
       <c r="C107">
-        <v>118</v>
+        <v>156</v>
       </c>
       <c r="E107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F107">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.45">
+        <v>147</v>
+      </c>
+      <c r="H107" t="s">
+        <v>101</v>
+      </c>
+      <c r="I107">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="108" spans="2:9">
       <c r="B108" t="s">
         <v>104</v>
       </c>
       <c r="C108">
-        <v>115</v>
+        <v>152</v>
       </c>
       <c r="E108" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F108">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+      <c r="H108" t="s">
+        <v>102</v>
+      </c>
+      <c r="I108">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="109" spans="2:9">
       <c r="B109" t="s">
         <v>105</v>
       </c>
       <c r="C109">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="E109" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F109">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+      <c r="H109" t="s">
+        <v>103</v>
+      </c>
+      <c r="I109">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="110" spans="2:9">
       <c r="B110" t="s">
         <v>106</v>
       </c>
       <c r="C110">
-        <v>180</v>
+        <v>239</v>
       </c>
       <c r="E110" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F110">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+      <c r="H110" t="s">
+        <v>104</v>
+      </c>
+      <c r="I110">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="111" spans="2:9">
       <c r="B111" t="s">
         <v>107</v>
       </c>
       <c r="C111">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="E111" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F111">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.45">
+        <v>141</v>
+      </c>
+      <c r="H111" t="s">
+        <v>105</v>
+      </c>
+      <c r="I111">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="112" spans="2:9">
       <c r="B112" t="s">
         <v>108</v>
       </c>
       <c r="C112">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="E112" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F112">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.45">
+        <v>180</v>
+      </c>
+      <c r="H112" t="s">
+        <v>106</v>
+      </c>
+      <c r="I112">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="113" spans="2:9">
       <c r="B113" t="s">
         <v>109</v>
       </c>
       <c r="C113">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="E113" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F113">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.45">
+        <v>117</v>
+      </c>
+      <c r="H113" t="s">
+        <v>107</v>
+      </c>
+      <c r="I113">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="114" spans="2:9">
       <c r="B114" t="s">
         <v>110</v>
       </c>
       <c r="C114">
-        <v>152</v>
+        <v>202</v>
       </c>
       <c r="E114" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F114">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.45">
+        <v>113</v>
+      </c>
+      <c r="H114" t="s">
+        <v>108</v>
+      </c>
+      <c r="I114">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="115" spans="2:9">
       <c r="B115" t="s">
         <v>111</v>
       </c>
       <c r="C115">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="E115" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F115">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+      <c r="H115" t="s">
+        <v>109</v>
+      </c>
+      <c r="I115">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="116" spans="2:9">
       <c r="B116" t="s">
         <v>112</v>
       </c>
       <c r="C116">
-        <v>137</v>
+        <v>182</v>
       </c>
       <c r="E116" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F116">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.45">
+        <v>152</v>
+      </c>
+      <c r="H116" t="s">
+        <v>110</v>
+      </c>
+      <c r="I116">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="2:9">
       <c r="B117" t="s">
         <v>113</v>
       </c>
       <c r="C117">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="E117" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F117">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+      <c r="H117" t="s">
+        <v>111</v>
+      </c>
+      <c r="I117">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="118" spans="2:9">
       <c r="B118" t="s">
         <v>114</v>
       </c>
       <c r="C118">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="E118" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F118">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.45">
+        <v>137</v>
+      </c>
+      <c r="H118" t="s">
+        <v>112</v>
+      </c>
+      <c r="I118">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="119" spans="2:9">
       <c r="B119" t="s">
         <v>115</v>
       </c>
       <c r="C119">
-        <v>145</v>
+        <v>192</v>
       </c>
       <c r="E119" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F119">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.45">
+        <v>113</v>
+      </c>
+      <c r="H119" t="s">
+        <v>113</v>
+      </c>
+      <c r="I119">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="120" spans="2:9">
       <c r="B120" t="s">
         <v>116</v>
       </c>
       <c r="C120">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="E120" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F120">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.45">
+        <v>113</v>
+      </c>
+      <c r="H120" t="s">
+        <v>114</v>
+      </c>
+      <c r="I120">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="121" spans="2:9">
       <c r="B121" t="s">
         <v>117</v>
       </c>
       <c r="C121">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="E121" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F121">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.45">
+        <v>145</v>
+      </c>
+      <c r="H121" t="s">
+        <v>115</v>
+      </c>
+      <c r="I121">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="122" spans="2:9">
       <c r="B122" t="s">
         <v>118</v>
       </c>
       <c r="C122">
-        <v>151</v>
+        <v>200</v>
       </c>
       <c r="E122" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F122">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.45">
+        <v>119</v>
+      </c>
+      <c r="H122" t="s">
+        <v>116</v>
+      </c>
+      <c r="I122">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="123" spans="2:9">
       <c r="B123" t="s">
         <v>119</v>
       </c>
       <c r="C123">
+        <v>184</v>
+      </c>
+      <c r="E123" t="s">
+        <v>117</v>
+      </c>
+      <c r="F123">
+        <v>114</v>
+      </c>
+      <c r="H123" t="s">
+        <v>117</v>
+      </c>
+      <c r="I123">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="124" spans="2:9">
+      <c r="E124" t="s">
+        <v>118</v>
+      </c>
+      <c r="F124">
+        <v>151</v>
+      </c>
+      <c r="H124" t="s">
+        <v>118</v>
+      </c>
+      <c r="I124">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="125" spans="2:9">
+      <c r="E125" t="s">
+        <v>119</v>
+      </c>
+      <c r="F125">
         <v>139</v>
       </c>
-      <c r="E123" t="s">
+      <c r="H125" t="s">
         <v>119</v>
       </c>
-      <c r="F123">
+      <c r="I125">
         <v>45</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{3CEC5E5B-A059-48B6-9076-0791820ADFE6}"/>
+    <hyperlink ref="B1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>

--- a/son/モデル適用/data_Stanford Dogs Dataset.xlsx
+++ b/son/モデル適用/data_Stanford Dogs Dataset.xlsx
@@ -807,7 +807,7 @@
   <dimension ref="B1:I125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -835,6 +835,10 @@
       <c r="C4" s="3">
         <v>151</v>
       </c>
+      <c r="F4">
+        <f>C3*0.8</f>
+        <v>16464</v>
+      </c>
     </row>
     <row r="5" spans="2:9" ht="14.25" thickBot="1">
       <c r="B5" t="s">
